--- a/Data Structure/Array/Array.xlsx
+++ b/Data Structure/Array/Array.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamrathod/Documents/Study Material/DS/DataStructure-And-Algorithm/Data Structure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamrathod/Documents/Study Material/DS/DataStructure-And-Algorithm/Data Structure/Array/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD553300-F9FE-3E4F-B90A-FAB18CD1D0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E63BE7-1AF0-0B4F-BE36-B2FC7AECBB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4E42177B-4881-CA45-8674-08098C02AC7A}"/>
   </bookViews>
@@ -1258,6 +1258,9 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1268,9 +1271,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1602,28 +1602,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1849,7 +1849,7 @@
       <c r="A25" s="2">
         <v>20</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1860,7 +1860,7 @@
       <c r="A26" s="2">
         <v>21</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="3" t="s">
